--- a/_config/RiKi_Monjyu_profile.xlsx
+++ b/_config/RiKi_Monjyu_profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\monjyu_ainetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\RiKi2025\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BE530E-7D4E-4041-AE21-80E112E71629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA150756-43EC-4300-839D-FE2A7C85D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{2DCCC95B-3C9D-42F9-BD55-AB95A37447E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DCCC95B-3C9D-42F9-BD55-AB95A37447E0}"/>
   </bookViews>
   <sheets>
     <sheet name="aaa" sheetId="1" r:id="rId1"/>
@@ -1579,7 +1579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,8 +1739,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1918,6 +1926,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2165,9 +2179,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2547,7 +2567,7 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2555,28 +2575,28 @@
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="91.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>506</v>
       </c>
